--- a/Excel reader/First Contest/B1.xlsx
+++ b/Excel reader/First Contest/B1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Hackerearth Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Enrolment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Problems Solved</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Plagiarism Status</t>
         </is>
@@ -446,16 +451,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ananta26</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>181b032</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -464,16 +474,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>akshat743</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>181b021</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -482,16 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>aakansha52</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>181b002</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -500,16 +520,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>akshat629</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>181b022</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -518,16 +543,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>anamika340</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>181b031</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -536,16 +566,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>aman1630</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>181b027</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -554,16 +589,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>akshaysrivastava46</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>181b023</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -572,16 +612,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>akshaygahlot.ak</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>181b024</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -590,16 +635,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>negiaditi1016</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>181b013</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -608,16 +658,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>29abhiraja</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>181b008</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -626,16 +681,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>gargabhay19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>181b007</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -644,16 +704,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>srivastavaayu</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>181b005</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -662,18 +727,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>aditya3167</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>181b015</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Also disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -682,16 +752,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>crazy__alok</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>181b026</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -700,16 +775,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>achalbhadada55</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>181b012</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -718,16 +798,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>abhishek_28</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>181b009</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
       <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -736,34 +821,46 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>adityarsingh24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>181b017</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D18" t="b">
-        <v>0</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>aishwarya2138</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>181b019</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -772,16 +869,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>anaf1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>181b030</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>6</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -790,16 +892,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>aayushi326</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>181b006</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -808,16 +915,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>singhaiaagam18</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>171b002</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -826,16 +938,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>akash4261</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t xml:space="preserve">181b020 </t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>6</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -844,16 +961,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>aasthasingh</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>181b004</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>6</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -862,16 +984,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>aditisanghi2000</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>181b014</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>6</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
